--- a/Pla de proves Restaurant.xlsx
+++ b/Pla de proves Restaurant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A7E0D5-99AA-4241-9B28-727D95EE937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC9F4E-6511-401E-861E-B3E042EEEA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B217954-4C8E-499A-A16A-45CF8FD4E92F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>“CocaCola”, 2.5, 2, n</t>
-  </si>
-  <si>
-    <t>“Fanta”, 2.0, 1, n</t>
   </si>
   <si>
     <t>OK</t>
@@ -248,6 +245,62 @@
   </si>
   <si>
     <t>Solucionat error a les variables</t>
+  </si>
+  <si>
+    <t>Aigua           2          1,00         2,00      
+cafe            1          1,50         1,50      
+Total sense IVA:                             3,50 ?
+IVA (10%):                                 0,35 ?
+TOTAL A PAGAR:                              3,85 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+abc
+ERROR: Introdueix un número vàlid.
+Preu unitari (?):</t>
+  </si>
+  <si>
+    <t>“Fanta”, 2, 1, n</t>
+  </si>
+  <si>
+    <t>Coca            2          2,50         5,00
+Fanta           1          2,00         2,00
+Total sense IVA:                             7,00 ?
+IVA (10%):                                 0,70 ?
+TOTAL A PAGAR:                              7,70 ?</t>
+  </si>
+  <si>
+    <t>Client: Albert
+Producte        Quantitat  Preu unit.   Subtotal
+Coca            2          2,50         5,00
+Fanta           1          2,00         2,00
+Total sense IVA:                             7,00 ?
+IVA (10%):                                 0,70 ?
+TOTAL A PAGAR:                              7,70 ?</t>
+  </si>
+  <si>
+    <t>&gt; Tria una opció:
+3
+No hi ha cap comanda registrada.
+===== GESTIÓ COMANDES RESTAURANT =====
+1. Crear nova comanda
+2. Actualitzar comanda anterior
+3. Visualitzar últim tiquet
+4. Sortir
+&gt; Tria una opció:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FINS LA PROPERA!    C:\Users\User\Documents\test.java&gt; </t>
+  </si>
+  <si>
+    <t>Total sense IVA:                            50,00 ?
+IVA (10%):                                 5,00 ?
+TOTAL A PAGAR:                           55,00 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom del producte: 
+ERROR: El text no pot estar buit.
+Nom del producte: </t>
   </si>
 </sst>
 </file>
@@ -291,13 +344,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA5D734-F122-4113-A012-74BDFAE57F2A}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,10 +747,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -715,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -739,10 +795,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -760,19 +816,19 @@
         <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -788,11 +844,15 @@
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -808,11 +868,15 @@
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -823,16 +887,20 @@
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -848,11 +916,15 @@
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -868,11 +940,15 @@
       <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -888,8 +964,12 @@
       <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -908,11 +988,15 @@
       <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -927,6 +1011,12 @@
       </c>
       <c r="E13" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
